--- a/sub-02PC/results_GNG_sub-02PC.xlsx
+++ b/sub-02PC/results_GNG_sub-02PC.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-02PC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\sub-02PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{73F82465-06B2-46EB-B6FE-51CB12ADE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44182F5-262F-426E-AC57-40DB0A98CA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="340" yWindow="3330" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_GNG_sub-02PC (2)" sheetId="2" r:id="rId1"/>
     <sheet name="results_GNG_sub-02PC" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_GNG_sub-02PC (2)'!$A$1:$Y$11</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_GNG_sub-02PC (2)'!$A$1:$Y$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - results_GNG_sub-02PC" description="Connexion à la requête « results_GNG_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - results_GNG_sub-02PC" description="Connexion à la requête « results_GNG_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=results_GNG_sub-02PC;Extended Properties=&quot;&quot;" command="SELECT * FROM [results_GNG_sub-02PC]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Essai,GD2,GD5,GD8,GG2,GG5,GG8,GH2,GH5,GH8,GB2,GB5,GB8,NGD2,NGD5,NGD8,NGG2,NGG5,NGG8,NGH2,NGH5,NGH8,NGB2,NGB5,NGB8</t>
   </si>
@@ -166,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,12 +707,45 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -732,39 +777,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -783,7 +795,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="26">
     <queryTableFields count="25">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -817,34 +829,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="results_GNG_sub_02PC" displayName="results_GNG_sub_02PC" ref="A1:Y11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Y11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_GNG_sub_02PC" displayName="results_GNG_sub_02PC" ref="A1:Y13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Y13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" uniqueName="2" name="GD2" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" uniqueName="3" name="GD5" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" uniqueName="4" name="GD8" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" uniqueName="5" name="GG2" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" uniqueName="6" name="GG5" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" uniqueName="7" name="GG8" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" uniqueName="8" name="GH2" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" uniqueName="9" name="GH5" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" uniqueName="10" name="GH8" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" uniqueName="11" name="GB2" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" uniqueName="12" name="GB5" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" uniqueName="13" name="GB8" queryTableFieldId="13" dataDxfId="0"/>
-    <tableColumn id="14" uniqueName="14" name="NGD2" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" uniqueName="15" name="NGD5" queryTableFieldId="15" dataDxfId="24"/>
-    <tableColumn id="16" uniqueName="16" name="NGD8" queryTableFieldId="16" dataDxfId="23"/>
-    <tableColumn id="17" uniqueName="17" name="NGG2" queryTableFieldId="17" dataDxfId="22"/>
-    <tableColumn id="18" uniqueName="18" name="NGG5" queryTableFieldId="18" dataDxfId="21"/>
-    <tableColumn id="19" uniqueName="19" name="NGG8" queryTableFieldId="19" dataDxfId="20"/>
-    <tableColumn id="20" uniqueName="20" name="NGH2" queryTableFieldId="20" dataDxfId="19"/>
-    <tableColumn id="21" uniqueName="21" name="NGH5" queryTableFieldId="21" dataDxfId="18"/>
-    <tableColumn id="22" uniqueName="22" name="NGH8" queryTableFieldId="22" dataDxfId="17"/>
-    <tableColumn id="23" uniqueName="23" name="NGB2" queryTableFieldId="23" dataDxfId="16"/>
-    <tableColumn id="24" uniqueName="24" name="NGB5" queryTableFieldId="24" dataDxfId="15"/>
-    <tableColumn id="25" uniqueName="25" name="NGB8" queryTableFieldId="25" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="GD2" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="GD5" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="GD8" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="GG2" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="GG5" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="GG8" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="GH2" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="GH5" queryTableFieldId="9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="GH8" queryTableFieldId="10" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="GB2" queryTableFieldId="11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="GB5" queryTableFieldId="12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="GB8" queryTableFieldId="13" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="NGD2" queryTableFieldId="14" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="NGD5" queryTableFieldId="15" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="NGD8" queryTableFieldId="16" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="NGG2" queryTableFieldId="17" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="NGG5" queryTableFieldId="18" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="NGG8" queryTableFieldId="19" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="NGH2" queryTableFieldId="20" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="NGH5" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="NGH8" queryTableFieldId="22" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="NGB2" queryTableFieldId="23" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="NGB5" queryTableFieldId="24" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="NGB8" queryTableFieldId="25" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2080,6 +2092,70 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE(B11:M11)</f>
+        <v>6.3204077262013034E-2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B9:M9)</f>
+        <v>0.64047619047619009</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2089,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
